--- a/biology/Zoologie/Etnaland/Etnaland.xlsx
+++ b/biology/Zoologie/Etnaland/Etnaland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Etnaland (anciennement Parco Zoo di Sicilia), est un parc à thèmes situé près de Belpasso, à environ 12 kilomètres de Catane.
-Ouvert depuis 2001 comme un petit Zoo dans une ferme typiquement sicilienne située au pied de l'Etna il a peu à peu évolué pour devenir un parc combinant zoo, parc aquatique et parc d'attractions. En 2007, le zoo a fermé définitivement ses portes[1].
+Ouvert depuis 2001 comme un petit Zoo dans une ferme typiquement sicilienne située au pied de l'Etna il a peu à peu évolué pour devenir un parc combinant zoo, parc aquatique et parc d'attractions. En 2007, le zoo a fermé définitivement ses portes.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Le parc aquatique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc aquatique comprend 25 attractions, déployées autour de 8 500 m2 de piscines ou bassins. Il s'agit principalement de grands toboggans qui se terminent dans des bassins, que l'on emprunte directement, ou bien sur une bouée gonflable. Il y a aussi des rides sur une embarcation flottante, qui effectuent un parcours sur une rivière artificielle, et dont on sort en général éclabousse ou mouillé.
 Le parc comporte des attractions pour jeunes enfants, des bassins de baignade, dont un à vagues artificielles, et des attractions à forte adrénaline.
@@ -553,7 +567,9 @@
           <t>Le parc des dinosaures</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une section du parc est dédié à la reconstitution d'animaux préhistoriques grandeur nature. L'accès à l'attraction s'effectue en train et le reste du parcours à pied. La visite commence par une grotte où les premières formes de vie sont exposées. Elle continue chronologiquement, présentant vie animale et végétale jusqu'à la période de l'homme de Cro-Magnon.
 </t>
@@ -584,7 +600,9 @@
           <t>Le téléphérique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un téléphérique est installé dans le parc, permettant de relier un réseau de 1,8 km et est soutenu par 23 piliers. Il compte environ 150 cabines, permettant le transport d'environ 700 personnes par heure.
 </t>
@@ -615,7 +633,9 @@
           <t>Attractions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cinema 4D - Cinéma 3D (2010)
 Crocodile Rapids - Rivière rapide en bouées d'Hafema (2005)
